--- a/outputs-HGR-r202-archive/g__CAG-217_train.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-217_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,7 +813,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_1.fasta</t>
+          <t>label_UMGS132_0.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -834,7 +834,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_13.fasta</t>
+          <t>label_UMGS132_24.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -855,7 +855,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_18.fasta</t>
+          <t>label_UMGS132_25.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -876,7 +876,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_31.fasta</t>
+          <t>label_UMGS132_28.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -897,7 +897,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_35.fasta</t>
+          <t>label_UMGS132_38.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -918,7 +918,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_39.fasta</t>
+          <t>label_UMGS132_42.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -939,7 +939,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_45.fasta</t>
+          <t>label_UMGS132_46.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -960,70 +960,70 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_5.fasta</t>
+          <t>label_UMGS132_53.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.3770492</v>
       </c>
       <c r="C22" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.6229508</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.6229508</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>s__CAG-217 sp000436335</t>
+          <t>s__CAG-217 sp900547275</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_51.fasta</t>
+          <t>label_UMGS132_56.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.3770492</v>
       </c>
       <c r="C23" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.6229508</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.6229508</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>s__CAG-217 sp000436335</t>
+          <t>s__CAG-217 sp900547275</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_0.fasta</t>
+          <t>label_UMGS132_57.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.3770492</v>
       </c>
       <c r="C24" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.6229508</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.6229508</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>s__CAG-217 sp000436335</t>
+          <t>s__CAG-217 sp900547275</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_24.fasta</t>
+          <t>label_UMGS132_7.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1044,7 +1044,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_25.fasta</t>
+          <t>label_UMGS132_9.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1065,7 +1065,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_28.fasta</t>
+          <t>label_UMGS132_10.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1086,7 +1086,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_38.fasta</t>
+          <t>label_UMGS132_12.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1107,7 +1107,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_42.fasta</t>
+          <t>label_UMGS132_14.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1128,7 +1128,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_46.fasta</t>
+          <t>label_UMGS132_15.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1149,70 +1149,70 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_53.fasta</t>
+          <t>label_UMGS132_19.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3770492</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6229508</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6229508</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>s__CAG-217 sp900547275</t>
+          <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_56.fasta</t>
+          <t>label_UMGS132_2.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3770492</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6229508</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6229508</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>s__CAG-217 sp900547275</t>
+          <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_57.fasta</t>
+          <t>label_UMGS132_40.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3770492</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6229508</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6229508</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>s__CAG-217 sp900547275</t>
+          <t>s__CAG-217 sp000436335</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_7.fasta</t>
+          <t>label_UMGS132_43.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1233,7 +1233,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_9.fasta</t>
+          <t>label_UMGS132_47.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1254,7 +1254,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_10.fasta</t>
+          <t>label_UMGS132_48.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1275,7 +1275,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_12.fasta</t>
+          <t>label_UMGS132_50.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1296,7 +1296,7 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_14.fasta</t>
+          <t>label_UMGS132_54.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1317,7 +1317,7 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_15.fasta</t>
+          <t>label_UMGS132_16.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1338,7 +1338,7 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_19.fasta</t>
+          <t>label_UMGS132_17.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1359,7 +1359,7 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_2.fasta</t>
+          <t>label_UMGS132_21.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1380,7 +1380,7 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_40.fasta</t>
+          <t>label_UMGS132_22.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1401,7 +1401,7 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_43.fasta</t>
+          <t>label_UMGS132_26.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1422,7 +1422,7 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_47.fasta</t>
+          <t>label_UMGS132_27.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1443,7 +1443,7 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_48.fasta</t>
+          <t>label_UMGS132_29.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1464,7 +1464,7 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_50.fasta</t>
+          <t>label_UMGS132_33.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1485,7 +1485,7 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_54.fasta</t>
+          <t>label_UMGS132_34.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1506,7 +1506,7 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_16.fasta</t>
+          <t>label_UMGS132_52.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1527,7 +1527,7 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_17.fasta</t>
+          <t>label_UMGS132_55.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1548,7 +1548,7 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_21.fasta</t>
+          <t>label_UMGS132_8.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1569,7 +1569,7 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_22.fasta</t>
+          <t>label_UMGS132_11.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1590,7 +1590,7 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_26.fasta</t>
+          <t>label_UMGS132_20.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1611,7 +1611,7 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_27.fasta</t>
+          <t>label_UMGS132_23.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1632,7 +1632,7 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_29.fasta</t>
+          <t>label_UMGS132_3.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1653,7 +1653,7 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_33.fasta</t>
+          <t>label_UMGS132_30.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1674,7 +1674,7 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_34.fasta</t>
+          <t>label_UMGS132_32.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1695,7 +1695,7 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_52.fasta</t>
+          <t>label_UMGS132_36.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1716,7 +1716,7 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_55.fasta</t>
+          <t>label_UMGS132_37.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1737,7 +1737,7 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_8.fasta</t>
+          <t>label_UMGS132_4.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1758,7 +1758,7 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_11.fasta</t>
+          <t>label_UMGS132_41.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1779,7 +1779,7 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_20.fasta</t>
+          <t>label_UMGS132_44.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1800,7 +1800,7 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_23.fasta</t>
+          <t>label_UMGS132_49.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1821,7 +1821,7 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS132_3.fasta</t>
+          <t>label_UMGS132_6.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1834,195 +1834,6 @@
         <v>0.9999999999999778</v>
       </c>
       <c r="E63" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS132_30.fasta</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS132_32.fasta</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS132_36.fasta</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS132_37.fasta</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS132_4.fasta</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS132_41.fasta</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS132_44.fasta</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS132_49.fasta</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp000436335</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS132_6.fasta</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E72" t="inlineStr">
         <is>
           <t>s__CAG-217 sp000436335</t>
         </is>
@@ -2039,7 +1850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2434,7 +2245,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_1.fasta</t>
+          <t>label_UMGS968_11.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2455,7 +2266,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_22.fasta</t>
+          <t>label_UMGS968_12.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2476,7 +2287,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_26.fasta</t>
+          <t>label_UMGS968_20.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2497,7 +2308,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_27.fasta</t>
+          <t>label_UMGS968_25.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2518,7 +2329,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_31.fasta</t>
+          <t>label_UMGS968_28.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2539,7 +2350,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_32.fasta</t>
+          <t>label_UMGS968_3.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2560,7 +2371,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_37.fasta</t>
+          <t>label_UMGS968_35.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2581,7 +2392,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_39.fasta</t>
+          <t>label_UMGS968_36.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2602,7 +2413,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_44.fasta</t>
+          <t>label_UMGS968_41.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2623,7 +2434,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_48.fasta</t>
+          <t>label_UMGS968_42.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2644,7 +2455,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_5.fasta</t>
+          <t>label_UMGS968_43.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2665,7 +2476,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_51.fasta</t>
+          <t>label_UMGS968_55.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2686,7 +2497,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_6.fasta</t>
+          <t>label_UMGS968_59.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2707,7 +2518,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_60.fasta</t>
+          <t>label_UMGS968_66.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2728,7 +2539,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_61.fasta</t>
+          <t>label_UMGS968_72.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2749,7 +2560,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_63.fasta</t>
+          <t>label_UMGS968_77.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2770,7 +2581,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_8.fasta</t>
+          <t>label_UMGS968_81.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2791,7 +2602,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_80.fasta</t>
+          <t>label_UMGS968_87.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2812,7 +2623,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_84.fasta</t>
+          <t>label_UMGS968_94.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2833,7 +2644,7 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_86.fasta</t>
+          <t>label_UMGS968_10.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2854,7 +2665,7 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_88.fasta</t>
+          <t>label_UMGS968_15.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2875,7 +2686,7 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_11.fasta</t>
+          <t>label_UMGS968_19.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2896,7 +2707,7 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_12.fasta</t>
+          <t>label_UMGS968_29.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2917,7 +2728,7 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_20.fasta</t>
+          <t>label_UMGS968_30.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2938,7 +2749,7 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_25.fasta</t>
+          <t>label_UMGS968_34.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2959,7 +2770,7 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_28.fasta</t>
+          <t>label_UMGS968_4.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2980,7 +2791,7 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_3.fasta</t>
+          <t>label_UMGS968_47.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3001,7 +2812,7 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_35.fasta</t>
+          <t>label_UMGS968_49.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3022,7 +2833,7 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_36.fasta</t>
+          <t>label_UMGS968_52.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3043,7 +2854,7 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_41.fasta</t>
+          <t>label_UMGS968_57.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3064,7 +2875,7 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_42.fasta</t>
+          <t>label_UMGS968_62.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3085,7 +2896,7 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_43.fasta</t>
+          <t>label_UMGS968_70.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3106,7 +2917,7 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_55.fasta</t>
+          <t>label_UMGS968_75.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3127,7 +2938,7 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_59.fasta</t>
+          <t>label_UMGS968_78.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3148,7 +2959,7 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_66.fasta</t>
+          <t>label_UMGS968_79.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3169,7 +2980,7 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_72.fasta</t>
+          <t>label_UMGS968_90.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3190,7 +3001,7 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_77.fasta</t>
+          <t>label_UMGS968_91.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3211,7 +3022,7 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_81.fasta</t>
+          <t>label_UMGS968_93.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3232,7 +3043,7 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_87.fasta</t>
+          <t>label_UMGS968_0.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -3253,7 +3064,7 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_94.fasta</t>
+          <t>label_UMGS968_14.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3274,7 +3085,7 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_10.fasta</t>
+          <t>label_UMGS968_16.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -3295,7 +3106,7 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_15.fasta</t>
+          <t>label_UMGS968_17.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -3316,7 +3127,7 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_19.fasta</t>
+          <t>label_UMGS968_2.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3337,7 +3148,7 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_29.fasta</t>
+          <t>label_UMGS968_23.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -3358,7 +3169,7 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_30.fasta</t>
+          <t>label_UMGS968_24.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -3379,7 +3190,7 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_34.fasta</t>
+          <t>label_UMGS968_38.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3400,7 +3211,7 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_4.fasta</t>
+          <t>label_UMGS968_45.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3421,7 +3232,7 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_47.fasta</t>
+          <t>label_UMGS968_50.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3442,7 +3253,7 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_49.fasta</t>
+          <t>label_UMGS968_54.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3463,7 +3274,7 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_52.fasta</t>
+          <t>label_UMGS968_58.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3484,7 +3295,7 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_57.fasta</t>
+          <t>label_UMGS968_67.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -3505,7 +3316,7 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_62.fasta</t>
+          <t>label_UMGS968_69.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3526,7 +3337,7 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_70.fasta</t>
+          <t>label_UMGS968_7.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3547,7 +3358,7 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_75.fasta</t>
+          <t>label_UMGS968_71.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3568,7 +3379,7 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_78.fasta</t>
+          <t>label_UMGS968_73.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3589,7 +3400,7 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_79.fasta</t>
+          <t>label_UMGS968_74.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3610,7 +3421,7 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_90.fasta</t>
+          <t>label_UMGS968_89.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3631,7 +3442,7 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_91.fasta</t>
+          <t>label_UMGS968_13.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3652,7 +3463,7 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_93.fasta</t>
+          <t>label_UMGS968_18.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3673,7 +3484,7 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_0.fasta</t>
+          <t>label_UMGS968_21.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3694,7 +3505,7 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_14.fasta</t>
+          <t>label_UMGS968_33.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3715,7 +3526,7 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_16.fasta</t>
+          <t>label_UMGS968_40.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3736,7 +3547,7 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_17.fasta</t>
+          <t>label_UMGS968_46.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3757,7 +3568,7 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_2.fasta</t>
+          <t>label_UMGS968_53.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3778,7 +3589,7 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_23.fasta</t>
+          <t>label_UMGS968_56.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3799,7 +3610,7 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_24.fasta</t>
+          <t>label_UMGS968_64.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3820,7 +3631,7 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_38.fasta</t>
+          <t>label_UMGS968_65.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3841,7 +3652,7 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_45.fasta</t>
+          <t>label_UMGS968_68.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3862,7 +3673,7 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_50.fasta</t>
+          <t>label_UMGS968_76.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3883,7 +3694,7 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_54.fasta</t>
+          <t>label_UMGS968_82.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3904,7 +3715,7 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_58.fasta</t>
+          <t>label_UMGS968_83.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3925,7 +3736,7 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_67.fasta</t>
+          <t>label_UMGS968_85.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3946,7 +3757,7 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_69.fasta</t>
+          <t>label_UMGS968_9.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3967,7 +3778,7 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS968_7.fasta</t>
+          <t>label_UMGS968_92.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3980,447 +3791,6 @@
         <v>1</v>
       </c>
       <c r="E92" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_71.fasta</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_73.fasta</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_74.fasta</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_89.fasta</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_13.fasta</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_18.fasta</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_21.fasta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_33.fasta</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_40.fasta</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_46.fasta</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_53.fasta</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_56.fasta</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_64.fasta</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_65.fasta</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_68.fasta</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_76.fasta</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_82.fasta</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_83.fasta</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_85.fasta</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_9.fasta</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>s__CAG-217 sp900547275</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS968_92.fasta</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" t="inlineStr">
         <is>
           <t>s__CAG-217 sp900547275</t>
         </is>
